--- a/Example Record Sheet Format.xlsx
+++ b/Example Record Sheet Format.xlsx
@@ -1,30 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B47F39E-2AA4-4804-8D49-20B801523D08}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10420" windowWidth="19420" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="Record" sheetId="1" r:id="rId1"/>
+    <sheet name="Record" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <definedNames/>
+  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>Name:</t>
   </si>
   <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>Jayne C.</t>
+  </si>
+  <si>
+    <t>Chell</t>
+  </si>
+  <si>
+    <t>Serj T.</t>
+  </si>
+  <si>
+    <t>Isaac A.</t>
+  </si>
+  <si>
+    <t>Sully</t>
+  </si>
+  <si>
+    <t>Oprah</t>
+  </si>
+  <si>
+    <t>GLaDOS</t>
+  </si>
+  <si>
+    <t>Padme</t>
+  </si>
+  <si>
+    <t>Peter P.</t>
+  </si>
+  <si>
     <t>Booking:</t>
   </si>
   <si>
@@ -34,6 +58,9 @@
     <t>s0110200</t>
   </si>
   <si>
+    <t>s4000000</t>
+  </si>
+  <si>
     <t>s2000000</t>
   </si>
   <si>
@@ -82,6 +109,9 @@
     <t>02/04/2019</t>
   </si>
   <si>
+    <t>Subject:</t>
+  </si>
+  <si>
     <t>English</t>
   </si>
   <si>
@@ -89,84 +119,49 @@
   </si>
   <si>
     <t>02/06/2019</t>
-  </si>
-  <si>
-    <t>Sully</t>
-  </si>
-  <si>
-    <t>Oprah</t>
-  </si>
-  <si>
-    <t>GLaDOS</t>
-  </si>
-  <si>
-    <t>Chell</t>
-  </si>
-  <si>
-    <t>Padme</t>
-  </si>
-  <si>
-    <t>Peter P.</t>
-  </si>
-  <si>
-    <t>Jayne C.</t>
-  </si>
-  <si>
-    <t>Serj T.</t>
-  </si>
-  <si>
-    <t>Isaac A.</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>s4000000</t>
-  </si>
-  <si>
-    <t>Subject:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <i val="1"/>
+      <color theme="1"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -182,55 +177,46 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -530,317 +516,381 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="9" width="8.7265625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="9.453125"/>
+    <col bestFit="1" customWidth="1" max="4" min="3" width="9.7265625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="9.7265625"/>
+    <col bestFit="1" customWidth="1" max="8" min="7" width="9.453125"/>
+    <col bestFit="1" customWidth="1" max="11" min="10" width="9.7265625"/>
+    <col bestFit="1" customWidth="1" max="19" min="19" width="9.7265625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" r="1" s="2" spans="1:18">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:18">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="L2" s="7" t="n"/>
+    </row>
+    <row customFormat="1" r="3" s="2" spans="1:18">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="3" t="n"/>
+      <c r="M3" s="3" t="n"/>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="3" t="n"/>
+      <c r="Q3" s="3" t="n"/>
+      <c r="R3" s="3" t="n"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="1" t="n"/>
+      <c r="M4" s="1" t="n"/>
+      <c r="N4" s="1" t="n"/>
+      <c r="O4" s="1" t="n"/>
+      <c r="P4" s="1" t="n"/>
+      <c r="Q4" s="1" t="n"/>
+      <c r="R4" s="1" t="n"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1">
-        <v>43493</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1">
-        <v>43496</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1">
-        <v>43493</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1">
-        <v>43496</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1">
-        <v>43493</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1">
-        <v>43493</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:18">
       <c r="B11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="8"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="8"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="8"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18"/>
+    <row r="13" spans="1:18"/>
+    <row r="14" spans="1:18"/>
+    <row r="15" spans="1:18"/>
+    <row r="16" spans="1:18"/>
+    <row r="17" spans="1:18"/>
+    <row r="18" spans="1:18"/>
+    <row r="19" spans="1:18"/>
+    <row r="20" spans="1:18"/>
+    <row r="21" spans="1:18"/>
+    <row r="22" spans="1:18"/>
+    <row r="23" spans="1:18"/>
+    <row r="24" spans="1:18"/>
+    <row r="25" spans="1:18"/>
+    <row r="26" spans="1:18"/>
+    <row r="27" spans="1:18"/>
+    <row r="28" spans="1:18"/>
+    <row r="29" spans="1:18"/>
+    <row r="30" spans="1:18"/>
+    <row r="31" spans="1:18"/>
+    <row r="32" spans="1:18"/>
+    <row r="33" spans="1:18"/>
+    <row r="34" spans="1:18"/>
+    <row r="35" spans="1:18"/>
+    <row r="36" spans="1:18"/>
+    <row r="37" spans="1:18"/>
+    <row r="38" spans="1:18"/>
+    <row r="39" spans="1:18"/>
+    <row r="40" spans="1:18"/>
+    <row r="41" spans="1:18"/>
+    <row r="42" spans="1:18">
+      <c r="A42" s="8" t="n"/>
+      <c r="B42" s="1" t="n"/>
+      <c r="C42" s="1" t="n"/>
+      <c r="D42" s="1" t="n"/>
+      <c r="F42" s="1" t="n"/>
+      <c r="G42" s="1" t="n"/>
+      <c r="H42" s="1" t="n"/>
+      <c r="I42" s="1" t="n"/>
+      <c r="J42" s="1" t="n"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="8" t="n"/>
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="n"/>
+      <c r="D43" s="1" t="n"/>
+      <c r="F43" s="1" t="n"/>
+      <c r="G43" s="1" t="n"/>
+      <c r="H43" s="1" t="n"/>
+      <c r="I43" s="1" t="n"/>
+      <c r="J43" s="1" t="n"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="8" t="n"/>
+      <c r="B44" s="1" t="n"/>
+      <c r="C44" s="1" t="n"/>
+      <c r="D44" s="1" t="n"/>
+      <c r="F44" s="1" t="n"/>
+      <c r="G44" s="1" t="n"/>
+      <c r="H44" s="1" t="n"/>
+      <c r="I44" s="1" t="n"/>
+      <c r="J44" s="1" t="n"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="8" t="n"/>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n"/>
+      <c r="D45" s="1" t="n"/>
+      <c r="F45" s="1" t="n"/>
+      <c r="G45" s="1" t="n"/>
+      <c r="H45" s="1" t="n"/>
+      <c r="I45" s="1" t="n"/>
+      <c r="J45" s="1" t="n"/>
+    </row>
+    <row r="46" spans="1:18"/>
+    <row r="47" spans="1:18"/>
+    <row r="48" spans="1:18"/>
+    <row r="49" spans="1:18"/>
+    <row r="50" spans="1:18"/>
+    <row r="51" spans="1:18"/>
+    <row r="52" spans="1:18"/>
+    <row r="53" spans="1:18"/>
+    <row r="54" spans="1:18"/>
+    <row r="55" spans="1:18"/>
+    <row r="56" spans="1:18"/>
+    <row r="57" spans="1:18"/>
+    <row r="58" spans="1:18"/>
+    <row r="59" spans="1:18"/>
+    <row r="60" spans="1:18"/>
+    <row r="61" spans="1:18"/>
+    <row r="62" spans="1:18"/>
+    <row r="63" spans="1:18"/>
+    <row r="64" spans="1:18"/>
+    <row r="65" spans="1:18"/>
+    <row r="66" spans="1:18"/>
+    <row r="67" spans="1:18"/>
+    <row r="68" spans="1:18"/>
+    <row r="69" spans="1:18"/>
+    <row r="70" spans="1:18"/>
+    <row r="71" spans="1:18"/>
+    <row r="72" spans="1:18"/>
+    <row r="73" spans="1:18"/>
+    <row r="74" spans="1:18"/>
+    <row r="75" spans="1:18"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" verticalDpi="4294967293"/>
 </worksheet>
 </file>
--- a/Example Record Sheet Format.xlsx
+++ b/Example Record Sheet Format.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\PycharmProjects\TutorRecord\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEA5804-B6ED-4F9D-867C-CCD209230193}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10420" windowWidth="19420" xWindow="-110" yWindow="-110"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Record" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Record" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>Name:</t>
   </si>
@@ -73,9 +79,6 @@
     <t>s0002000</t>
   </si>
   <si>
-    <t>s2222222</t>
-  </si>
-  <si>
     <t>s0110000</t>
   </si>
   <si>
@@ -119,49 +122,51 @@
   </si>
   <si>
     <t>02/06/2019</t>
+  </si>
+  <si>
+    <t>s2121212</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -177,46 +182,55 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -516,29 +530,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:R75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="9" width="8.7265625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="9.453125"/>
-    <col bestFit="1" customWidth="1" max="4" min="3" width="9.7265625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="9.7265625"/>
-    <col bestFit="1" customWidth="1" max="8" min="7" width="9.453125"/>
-    <col bestFit="1" customWidth="1" max="11" min="10" width="9.7265625"/>
-    <col bestFit="1" customWidth="1" max="19" min="19" width="9.7265625"/>
+    <col min="1" max="1" width="8.7265625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="2" spans="1:18">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -573,43 +583,43 @@
         <v>10</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:18">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="2">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="n">
+      <c r="D2" s="2">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="2">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="2">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="2">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="2">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="2">
         <v>16</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="2">
         <v>11</v>
       </c>
-      <c r="L2" s="7" t="n"/>
-    </row>
-    <row customFormat="1" r="3" s="2" spans="1:18">
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -635,262 +645,208 @@
         <v>18</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="3" t="n"/>
-      <c r="M3" s="3" t="n"/>
-      <c r="N3" s="3" t="n"/>
-      <c r="O3" s="3" t="n"/>
-      <c r="P3" s="3" t="n"/>
-      <c r="Q3" s="3" t="n"/>
-      <c r="R3" s="3" t="n"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
       <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="1" t="n"/>
-      <c r="M4" s="1" t="n"/>
-      <c r="N4" s="1" t="n"/>
-      <c r="O4" s="1" t="n"/>
-      <c r="P4" s="1" t="n"/>
-      <c r="Q4" s="1" t="n"/>
-      <c r="R4" s="1" t="n"/>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="10" t="s">
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="11" t="s">
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18"/>
-    <row r="13" spans="1:18"/>
-    <row r="14" spans="1:18"/>
-    <row r="15" spans="1:18"/>
-    <row r="16" spans="1:18"/>
-    <row r="17" spans="1:18"/>
-    <row r="18" spans="1:18"/>
-    <row r="19" spans="1:18"/>
-    <row r="20" spans="1:18"/>
-    <row r="21" spans="1:18"/>
-    <row r="22" spans="1:18"/>
-    <row r="23" spans="1:18"/>
-    <row r="24" spans="1:18"/>
-    <row r="25" spans="1:18"/>
-    <row r="26" spans="1:18"/>
-    <row r="27" spans="1:18"/>
-    <row r="28" spans="1:18"/>
-    <row r="29" spans="1:18"/>
-    <row r="30" spans="1:18"/>
-    <row r="31" spans="1:18"/>
-    <row r="32" spans="1:18"/>
-    <row r="33" spans="1:18"/>
-    <row r="34" spans="1:18"/>
-    <row r="35" spans="1:18"/>
-    <row r="36" spans="1:18"/>
-    <row r="37" spans="1:18"/>
-    <row r="38" spans="1:18"/>
-    <row r="39" spans="1:18"/>
-    <row r="40" spans="1:18"/>
-    <row r="41" spans="1:18"/>
-    <row r="42" spans="1:18">
-      <c r="A42" s="8" t="n"/>
-      <c r="B42" s="1" t="n"/>
-      <c r="C42" s="1" t="n"/>
-      <c r="D42" s="1" t="n"/>
-      <c r="F42" s="1" t="n"/>
-      <c r="G42" s="1" t="n"/>
-      <c r="H42" s="1" t="n"/>
-      <c r="I42" s="1" t="n"/>
-      <c r="J42" s="1" t="n"/>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="A43" s="8" t="n"/>
-      <c r="B43" s="1" t="n"/>
-      <c r="C43" s="1" t="n"/>
-      <c r="D43" s="1" t="n"/>
-      <c r="F43" s="1" t="n"/>
-      <c r="G43" s="1" t="n"/>
-      <c r="H43" s="1" t="n"/>
-      <c r="I43" s="1" t="n"/>
-      <c r="J43" s="1" t="n"/>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="A44" s="8" t="n"/>
-      <c r="B44" s="1" t="n"/>
-      <c r="C44" s="1" t="n"/>
-      <c r="D44" s="1" t="n"/>
-      <c r="F44" s="1" t="n"/>
-      <c r="G44" s="1" t="n"/>
-      <c r="H44" s="1" t="n"/>
-      <c r="I44" s="1" t="n"/>
-      <c r="J44" s="1" t="n"/>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="A45" s="8" t="n"/>
-      <c r="B45" s="1" t="n"/>
-      <c r="C45" s="1" t="n"/>
-      <c r="D45" s="1" t="n"/>
-      <c r="F45" s="1" t="n"/>
-      <c r="G45" s="1" t="n"/>
-      <c r="H45" s="1" t="n"/>
-      <c r="I45" s="1" t="n"/>
-      <c r="J45" s="1" t="n"/>
-    </row>
-    <row r="46" spans="1:18"/>
-    <row r="47" spans="1:18"/>
-    <row r="48" spans="1:18"/>
-    <row r="49" spans="1:18"/>
-    <row r="50" spans="1:18"/>
-    <row r="51" spans="1:18"/>
-    <row r="52" spans="1:18"/>
-    <row r="53" spans="1:18"/>
-    <row r="54" spans="1:18"/>
-    <row r="55" spans="1:18"/>
-    <row r="56" spans="1:18"/>
-    <row r="57" spans="1:18"/>
-    <row r="58" spans="1:18"/>
-    <row r="59" spans="1:18"/>
-    <row r="60" spans="1:18"/>
-    <row r="61" spans="1:18"/>
-    <row r="62" spans="1:18"/>
-    <row r="63" spans="1:18"/>
-    <row r="64" spans="1:18"/>
-    <row r="65" spans="1:18"/>
-    <row r="66" spans="1:18"/>
-    <row r="67" spans="1:18"/>
-    <row r="68" spans="1:18"/>
-    <row r="69" spans="1:18"/>
-    <row r="70" spans="1:18"/>
-    <row r="71" spans="1:18"/>
-    <row r="72" spans="1:18"/>
-    <row r="73" spans="1:18"/>
-    <row r="74" spans="1:18"/>
-    <row r="75" spans="1:18"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="8"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="8"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="8"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="8"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" verticalDpi="4294967293"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
 </worksheet>
 </file>
--- a/Example Record Sheet Format.xlsx
+++ b/Example Record Sheet Format.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\PycharmProjects\TutorRecord\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEA5804-B6ED-4F9D-867C-CCD209230193}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10420" windowWidth="19420" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="Record" sheetId="1" r:id="rId1"/>
+    <sheet name="Record" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <definedNames/>
+  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>Name:</t>
   </si>
@@ -55,6 +49,9 @@
     <t>Peter P.</t>
   </si>
   <si>
+    <t>Wario</t>
+  </si>
+  <si>
     <t>Booking:</t>
   </si>
   <si>
@@ -73,15 +70,21 @@
     <t>s0020000</t>
   </si>
   <si>
-    <t>s0000200</t>
+    <t>s0000020</t>
   </si>
   <si>
     <t>s0002000</t>
   </si>
   <si>
+    <t>s2121212</t>
+  </si>
+  <si>
     <t>s0110000</t>
   </si>
   <si>
+    <t>s0400002</t>
+  </si>
+  <si>
     <t>Dates:</t>
   </si>
   <si>
@@ -100,6 +103,9 @@
     <t>01/31/2019</t>
   </si>
   <si>
+    <t>02/12/2019</t>
+  </si>
+  <si>
     <t>Teacher:</t>
   </si>
   <si>
@@ -109,64 +115,77 @@
     <t>02/08/2019</t>
   </si>
   <si>
+    <t>01/17/2019</t>
+  </si>
+  <si>
+    <t>Subject:</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>02/05/2019</t>
+  </si>
+  <si>
     <t>02/04/2019</t>
   </si>
   <si>
-    <t>Subject:</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>02/05/2019</t>
+    <t>02/07/2019</t>
+  </si>
+  <si>
+    <t>01/24/2019</t>
+  </si>
+  <si>
+    <t>02/10/2019</t>
   </si>
   <si>
     <t>02/06/2019</t>
   </si>
   <si>
-    <t>s2121212</t>
+    <t>01/14/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <i val="1"/>
+      <color theme="1"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -182,55 +201,49 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="13">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -530,323 +543,458 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="9" width="8.7265625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="9.453125"/>
+    <col bestFit="1" customWidth="1" max="4" min="3" width="9.7265625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="9.7265625"/>
+    <col bestFit="1" customWidth="1" max="8" min="7" width="9.453125"/>
+    <col bestFit="1" customWidth="1" max="11" min="10" width="9.7265625"/>
+    <col bestFit="1" customWidth="1" max="19" min="19" width="9.7265625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" r="1" s="12" spans="1:18">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="12" spans="1:18">
       <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2">
+        <v>12</v>
+      </c>
+      <c r="B2" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="12" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" s="12" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2" s="12" t="n">
+        <v>53</v>
+      </c>
+      <c r="G2" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="K2" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2" s="7" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row customFormat="1" r="3" s="12" spans="1:18">
+      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2">
-        <v>6</v>
-      </c>
-      <c r="J2" s="2">
+      <c r="H3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="2">
-        <v>11</v>
-      </c>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="L3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="n"/>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="3" t="n"/>
+      <c r="Q3" s="3" t="n"/>
+      <c r="R3" s="3" t="n"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="1" t="n"/>
+      <c r="N4" s="1" t="n"/>
+      <c r="O4" s="1" t="n"/>
+      <c r="P4" s="1" t="n"/>
+      <c r="Q4" s="1" t="n"/>
+      <c r="R4" s="1" t="n"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
         <v>28</v>
       </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
+    <row r="8" spans="1:18">
+      <c r="A8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
         <v>28</v>
       </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="B10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="B11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="8"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="8"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="8"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18"/>
+    <row r="15" spans="1:18"/>
+    <row r="16" spans="1:18"/>
+    <row r="17" spans="1:18"/>
+    <row r="18" spans="1:18"/>
+    <row r="19" spans="1:18"/>
+    <row r="20" spans="1:18"/>
+    <row r="21" spans="1:18"/>
+    <row r="22" spans="1:18"/>
+    <row r="23" spans="1:18"/>
+    <row r="24" spans="1:18"/>
+    <row r="25" spans="1:18"/>
+    <row r="26" spans="1:18"/>
+    <row r="27" spans="1:18"/>
+    <row r="28" spans="1:18"/>
+    <row r="29" spans="1:18"/>
+    <row r="30" spans="1:18"/>
+    <row r="31" spans="1:18"/>
+    <row r="32" spans="1:18"/>
+    <row r="33" spans="1:18"/>
+    <row r="34" spans="1:18"/>
+    <row r="35" spans="1:18"/>
+    <row r="36" spans="1:18"/>
+    <row r="37" spans="1:18"/>
+    <row r="38" spans="1:18"/>
+    <row r="39" spans="1:18"/>
+    <row r="40" spans="1:18"/>
+    <row r="41" spans="1:18"/>
+    <row r="42" spans="1:18">
+      <c r="A42" s="8" t="n"/>
+      <c r="B42" s="1" t="n"/>
+      <c r="C42" s="1" t="n"/>
+      <c r="D42" s="1" t="n"/>
+      <c r="F42" s="1" t="n"/>
+      <c r="G42" s="1" t="n"/>
+      <c r="H42" s="1" t="n"/>
+      <c r="I42" s="1" t="n"/>
+      <c r="J42" s="1" t="n"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="8" t="n"/>
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="n"/>
+      <c r="D43" s="1" t="n"/>
+      <c r="F43" s="1" t="n"/>
+      <c r="G43" s="1" t="n"/>
+      <c r="H43" s="1" t="n"/>
+      <c r="I43" s="1" t="n"/>
+      <c r="J43" s="1" t="n"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="8" t="n"/>
+      <c r="B44" s="1" t="n"/>
+      <c r="C44" s="1" t="n"/>
+      <c r="D44" s="1" t="n"/>
+      <c r="F44" s="1" t="n"/>
+      <c r="G44" s="1" t="n"/>
+      <c r="H44" s="1" t="n"/>
+      <c r="I44" s="1" t="n"/>
+      <c r="J44" s="1" t="n"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="8" t="n"/>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n"/>
+      <c r="D45" s="1" t="n"/>
+      <c r="F45" s="1" t="n"/>
+      <c r="G45" s="1" t="n"/>
+      <c r="H45" s="1" t="n"/>
+      <c r="I45" s="1" t="n"/>
+      <c r="J45" s="1" t="n"/>
+    </row>
+    <row r="46" spans="1:18"/>
+    <row r="47" spans="1:18"/>
+    <row r="48" spans="1:18"/>
+    <row r="49" spans="1:18"/>
+    <row r="50" spans="1:18"/>
+    <row r="51" spans="1:18"/>
+    <row r="52" spans="1:18"/>
+    <row r="53" spans="1:18"/>
+    <row r="54" spans="1:18"/>
+    <row r="55" spans="1:18"/>
+    <row r="56" spans="1:18"/>
+    <row r="57" spans="1:18"/>
+    <row r="58" spans="1:18"/>
+    <row r="59" spans="1:18"/>
+    <row r="60" spans="1:18"/>
+    <row r="61" spans="1:18"/>
+    <row r="62" spans="1:18"/>
+    <row r="63" spans="1:18"/>
+    <row r="64" spans="1:18"/>
+    <row r="65" spans="1:18"/>
+    <row r="66" spans="1:18"/>
+    <row r="67" spans="1:18"/>
+    <row r="68" spans="1:18"/>
+    <row r="69" spans="1:18"/>
+    <row r="70" spans="1:18"/>
+    <row r="71" spans="1:18"/>
+    <row r="72" spans="1:18"/>
+    <row r="73" spans="1:18"/>
+    <row r="74" spans="1:18"/>
+    <row r="75" spans="1:18"/>
+    <row r="76" spans="1:18"/>
+    <row r="77" spans="1:18"/>
+    <row r="78" spans="1:18"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" verticalDpi="4294967293"/>
 </worksheet>
 </file>
--- a/Example Record Sheet Format.xlsx
+++ b/Example Record Sheet Format.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10420" windowWidth="19420" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="Record" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Record" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
